--- a/проект/python/Zadachka (копия2).xlsx
+++ b/проект/python/Zadachka (копия2).xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>Сортировка: интеграл θ (max -&gt; min)</t>
+          <t>Сортировка: β/α (max -&gt; min)</t>
         </is>
       </c>
     </row>
@@ -531,28 +531,28 @@
     <row customHeight="1" ht="13.8" r="5" s="5">
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>x_0 = 15.0</t>
+          <t>x_0 = 9.0</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="6" s="5">
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>x_1 = 12.0</t>
+          <t>x_1 = 15.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="H7" s="4" t="inlineStr">
         <is>
-          <t>x_2 = 9.0</t>
+          <t>x_2 = 12.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>Время решения: 0.0031680000000000597 сек.</t>
+          <t>Время решения: 0.0023359999999998937 сек.</t>
         </is>
       </c>
     </row>
